--- a/spliced/falling/2023-03-25_18-01-21/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-21/accelerometer_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.8466672897338867</v>
+        <v>-0.7477993965148926</v>
       </c>
       <c r="B2" t="n">
-        <v>1.015576839447022</v>
+        <v>0.8460922241210938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3397563397884369</v>
+        <v>0.0258597135543823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.3906707763671875</v>
+        <v>-0.8064756393432617</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6379885673522949</v>
+        <v>0.8524413108825684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3954523801803589</v>
+        <v>-0.0703473389148712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.8676061630249023</v>
+        <v>-0.7388706207275391</v>
       </c>
       <c r="B4" t="n">
-        <v>0.545799732208252</v>
+        <v>0.7278079986572266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2887592911720276</v>
+        <v>0.0533058643341064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.6799111366271973</v>
+        <v>-0.7223987579345703</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3862724304199219</v>
+        <v>0.7231974601745605</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3476599752902984</v>
+        <v>0.1768441945314407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1029138565063476</v>
+        <v>-0.8466672897338867</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1001324653625488</v>
+        <v>1.015576839447022</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.190993785858154</v>
+        <v>0.3397563397884369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4145522117614746</v>
+        <v>-0.3906707763671875</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0007905960083007</v>
+        <v>0.6379885673522949</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.845284700393677</v>
+        <v>0.3954523801803589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.701473712921143</v>
+        <v>-0.8676061630249023</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7780666351318359</v>
+        <v>0.545799732208252</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.666865825653076</v>
+        <v>0.2887592911720276</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.315230846405029</v>
+        <v>-0.6799111366271973</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.501971244812012</v>
+        <v>0.3862724304199219</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.233747959136963</v>
+        <v>-0.3476599752902984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.985809087753296</v>
+        <v>-0.1029138565063476</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.085277080535889</v>
+        <v>-0.1001324653625488</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.856818199157715</v>
+        <v>-1.190993785858154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.954225778579712</v>
+        <v>-0.4145522117614746</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.951249122619629</v>
+        <v>-0.0007905960083007</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.099813938140869</v>
+        <v>-1.845284700393677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.63595199584961</v>
+        <v>-1.701473712921143</v>
       </c>
       <c r="B12" t="n">
-        <v>2.219827651977539</v>
+        <v>-0.7780666351318359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8921973705291748</v>
+        <v>-1.666865825653076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.556339263916016</v>
+        <v>-2.315230846405029</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.303864598274231</v>
+        <v>-2.501971244812012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8833200931549072</v>
+        <v>-2.233747959136963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5.200931549072266</v>
+        <v>-2.985809087753296</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.096135139465332</v>
+        <v>-4.085277080535889</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.002499103546143</v>
+        <v>-1.856818199157715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.456565856933594</v>
+        <v>-3.954225778579712</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5583957433700562</v>
+        <v>-3.951249122619629</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8129391670227051</v>
+        <v>-3.099813938140869</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0285444259643554</v>
+        <v>-3.63595199584961</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4004054665565491</v>
+        <v>2.219827651977539</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4799985885620117</v>
+        <v>0.8921973705291748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.57087516784668</v>
+        <v>1.556339263916016</v>
       </c>
       <c r="B17" t="n">
-        <v>2.266251564025879</v>
+        <v>-1.303864598274231</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.062000274658203</v>
+        <v>0.8833200931549072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.406256675720215</v>
+        <v>-5.200931549072266</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1967076063156128</v>
+        <v>-2.096135139465332</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8613651394844055</v>
+        <v>-4.002499103546143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.7192792892456055</v>
+        <v>-4.456565856933594</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2438719868659973</v>
+        <v>0.5583957433700562</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1796204447746276</v>
+        <v>-0.8129391670227051</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1307535171508789</v>
+        <v>-0.0285444259643554</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7073250412940979</v>
+        <v>0.4004054665565491</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7947471737861633</v>
+        <v>-0.4799985885620117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0377359390258789</v>
+        <v>1.57087516784668</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7947672605514526</v>
+        <v>2.266251564025879</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3724856078624725</v>
+        <v>-1.062000274658203</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-21/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-21/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.7477993965148926</v>
+        <v>-0.7822842597961426</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8460922241210938</v>
+        <v>0.7009620666503906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0258597135543823</v>
+        <v>0.2034818530082702</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.8064756393432617</v>
+        <v>-0.6724414825439453</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8524413108825684</v>
+        <v>0.7283806800842285</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0703473389148712</v>
+        <v>0.0338471233844757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.7388706207275391</v>
+        <v>-0.955592155456543</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7278079986572266</v>
+        <v>0.6646170616149902</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0533058643341064</v>
+        <v>0.1322764456272125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.7223987579345703</v>
+        <v>-0.5998220443725586</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7231974601745605</v>
+        <v>0.6136178970336914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1768441945314407</v>
+        <v>-0.3951224088668823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8466672897338867</v>
+        <v>-0.6383709907531738</v>
       </c>
       <c r="B6" t="n">
-        <v>1.015576839447022</v>
+        <v>0.829352855682373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3397563397884369</v>
+        <v>0.2481068670749664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.3906707763671875</v>
+        <v>-0.8866777420043945</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6379885673522949</v>
+        <v>0.6802849769592285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3954523801803589</v>
+        <v>0.1837458908557891</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8676061630249023</v>
+        <v>-0.7689142227172852</v>
       </c>
       <c r="B8" t="n">
-        <v>0.545799732208252</v>
+        <v>0.6263480186462402</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2887592911720276</v>
+        <v>-0.1205646991729736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.6799111366271973</v>
+        <v>-0.7416219711303711</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3862724304199219</v>
+        <v>0.6671648025512695</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3476599752902984</v>
+        <v>-0.0121779441833496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1029138565063476</v>
+        <v>-0.9570107460021972</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1001324653625488</v>
+        <v>0.7521457672119141</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.190993785858154</v>
+        <v>0.0322656333446502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4145522117614746</v>
+        <v>-0.8430213928222656</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0007905960083007</v>
+        <v>0.7305541038513184</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.845284700393677</v>
+        <v>0.0520271658897399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.701473712921143</v>
+        <v>-0.7825779914855957</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7780666351318359</v>
+        <v>0.6732511520385742</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.666865825653076</v>
+        <v>-0.1082392036914825</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.315230846405029</v>
+        <v>-0.6774282455444336</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.501971244812012</v>
+        <v>0.5100307464599609</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.233747959136963</v>
+        <v>-0.1018824279308319</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.985809087753296</v>
+        <v>-0.801264762878418</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.085277080535889</v>
+        <v>0.6673240661621094</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.856818199157715</v>
+        <v>0.1666318476200103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.954225778579712</v>
+        <v>-0.7477993965148926</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.951249122619629</v>
+        <v>0.8460922241210938</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.099813938140869</v>
+        <v>0.0258597135543823</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.63595199584961</v>
+        <v>-0.8064756393432617</v>
       </c>
       <c r="B16" t="n">
-        <v>2.219827651977539</v>
+        <v>0.8524413108825684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8921973705291748</v>
+        <v>-0.0703473389148712</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.556339263916016</v>
+        <v>-0.7388706207275391</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.303864598274231</v>
+        <v>0.7278079986572266</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8833200931549072</v>
+        <v>0.0533058643341064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.200931549072266</v>
+        <v>-0.7223987579345703</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.096135139465332</v>
+        <v>0.7231974601745605</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.002499103546143</v>
+        <v>0.1768441945314407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.456565856933594</v>
+        <v>-0.8466672897338867</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5583957433700562</v>
+        <v>1.015576839447022</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.8129391670227051</v>
+        <v>0.3397563397884369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0285444259643554</v>
+        <v>-0.3906707763671875</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4004054665565491</v>
+        <v>0.6379885673522949</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4799985885620117</v>
+        <v>0.3954523801803589</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.57087516784668</v>
+        <v>-0.8676061630249023</v>
       </c>
       <c r="B21" t="n">
-        <v>2.266251564025879</v>
+        <v>0.545799732208252</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.062000274658203</v>
+        <v>0.2887592911720276</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.6799111366271973</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3862724304199219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3476599752902984</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.1029138565063476</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1001324653625488</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.190993785858154</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4145522117614746</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.0007905960083007</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.845284700393677</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.701473712921143</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.7780666351318359</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.666865825653076</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-2.315230846405029</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.501971244812012</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.233747959136963</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-2.985809087753296</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-4.085277080535889</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.856818199157715</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-3.954225778579712</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.951249122619629</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.099813938140869</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-3.63595199584961</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.219827651977539</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8921973705291748</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.556339263916016</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.303864598274231</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8833200931549072</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-5.200931549072266</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.096135139465332</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-4.002499103546143</v>
       </c>
     </row>
   </sheetData>
